--- a/new-invoice-frontend/main/src/assets/files/jobnameimport.xlsx
+++ b/new-invoice-frontend/main/src/assets/files/jobnameimport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\rovuk-invoice\new-invoice-frontend\main\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
